--- a/results/impute/energy.xlsx
+++ b/results/impute/energy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stuli/My Drive/Research/DINI/dini/results/impute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD21505-7693-FD4C-8F5F-9253720E8191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D54D8FA-732D-9B40-8F97-287BDD8CF2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39740" yWindow="-260" windowWidth="28040" windowHeight="17220" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
+    <workbookView xWindow="34480" yWindow="2400" windowWidth="30240" windowHeight="17240" xr2:uid="{FB3A87BB-7BEB-D441-9EF8-D1413741322A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,8 +142,8 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -464,7 +467,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -559,7 +562,7 @@
         <v>0.31068973308193099</v>
       </c>
       <c r="E3" s="1">
-        <v>0.177123814743608</v>
+        <v>0.27712381474360798</v>
       </c>
       <c r="F3" s="1">
         <v>0.29320594076716</v>
@@ -663,7 +666,7 @@
         <v>0.30474414999999999</v>
       </c>
       <c r="M5" s="2">
-        <v>0.18916528960573301</v>
+        <v>0.183165289605733</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -748,43 +751,43 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>0.134282451101084</v>
+        <v>0.128481783360336</v>
       </c>
       <c r="D8" s="1">
-        <v>0.20561730744753401</v>
+        <v>0.17437790097997499</v>
       </c>
       <c r="E8" s="1">
-        <v>0.245525153640413</v>
+        <v>0.144300308049331</v>
       </c>
       <c r="F8" s="1">
-        <v>0.20903938236779901</v>
+        <v>0.164790204703258</v>
       </c>
       <c r="G8" s="1">
-        <v>8.90146072095995E-2</v>
+        <v>9.4385095638751901E-2</v>
       </c>
       <c r="H8" s="1">
-        <v>0.39345324065270398</v>
+        <v>0.404857911697933</v>
       </c>
       <c r="I8" s="1">
-        <v>0.14645900880462001</v>
+        <v>0.14207905798536399</v>
       </c>
       <c r="J8" s="1">
-        <v>0.27321145790011903</v>
+        <v>0.17315139838156099</v>
       </c>
       <c r="K8" s="1">
-        <v>0.28897519985424402</v>
+        <v>0.17938303779001899</v>
       </c>
       <c r="L8" s="1">
-        <v>0.12908444999999999</v>
+        <v>0.12929346</v>
       </c>
       <c r="M8" s="2">
-        <v>7.9447781268182596E-2</v>
+        <v>8.2224894685383895E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -793,78 +796,78 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>0.322290625533592</v>
+        <v>0.318088634817844</v>
       </c>
       <c r="D9" s="1">
-        <v>0.332004957307455</v>
+        <v>0.32914906586619802</v>
       </c>
       <c r="E9" s="1">
-        <v>0.342439342485578</v>
+        <v>0.22949326928373201</v>
       </c>
       <c r="F9" s="1">
-        <v>0.38163038200814398</v>
+        <v>0.32373749849059302</v>
       </c>
       <c r="G9" s="1">
-        <v>0.24238725459565799</v>
+        <v>0.25670852049843701</v>
       </c>
       <c r="H9" s="1">
-        <v>0.51034154895442896</v>
+        <v>0.52370047517613105</v>
       </c>
       <c r="I9" s="1">
-        <v>0.32735960516121299</v>
+        <v>0.32691082688214401</v>
       </c>
       <c r="J9" s="1">
-        <v>0.38256920376636999</v>
+        <v>0.26877746200025698</v>
       </c>
       <c r="K9" s="1">
-        <v>0.39878156667671399</v>
+        <v>0.28111012452799899</v>
       </c>
       <c r="L9" s="1">
-        <v>0.30464414000000001</v>
+        <v>0.30484653</v>
       </c>
       <c r="M9" s="2">
-        <v>0.235762255572663</v>
+        <v>0.22945545163800701</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>0.128481783360336</v>
+        <v>0.134282451101084</v>
       </c>
       <c r="D10" s="1">
-        <v>0.17437790097997499</v>
+        <v>0.20561730744753401</v>
       </c>
       <c r="E10" s="1">
-        <v>0.144300308049331</v>
+        <v>0.245525153640413</v>
       </c>
       <c r="F10" s="1">
-        <v>0.164790204703258</v>
+        <v>0.20903938236779901</v>
       </c>
       <c r="G10" s="1">
-        <v>9.4385095638751901E-2</v>
+        <v>8.90146072095995E-2</v>
       </c>
       <c r="H10" s="1">
-        <v>0.404857911697933</v>
+        <v>0.39345324065270398</v>
       </c>
       <c r="I10" s="1">
-        <v>0.14207905798536399</v>
+        <v>0.14645900880462001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.17315139838156099</v>
+        <v>0.27321145790011903</v>
       </c>
       <c r="K10" s="1">
-        <v>0.17938303779001899</v>
+        <v>0.28897519985424402</v>
       </c>
       <c r="L10" s="1">
-        <v>0.12929346</v>
+        <v>0.12908444999999999</v>
       </c>
       <c r="M10" s="2">
-        <v>8.2224894685383895E-2</v>
+        <v>7.9447781268182596E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -873,47 +876,47 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>0.318088634817844</v>
+        <v>0.322290625533592</v>
       </c>
       <c r="D11" s="1">
-        <v>0.32914906586619802</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.229293269283732</v>
+        <v>0.332004957307455</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.342439342485578</v>
       </c>
       <c r="F11" s="1">
-        <v>0.32373749849059302</v>
+        <v>0.38163038200814398</v>
       </c>
       <c r="G11" s="1">
-        <v>0.25670852049843701</v>
+        <v>0.24238725459565799</v>
       </c>
       <c r="H11" s="1">
-        <v>0.52370047517613105</v>
+        <v>0.51034154895442896</v>
       </c>
       <c r="I11" s="1">
-        <v>0.32691082688214401</v>
+        <v>0.32735960516121299</v>
       </c>
       <c r="J11" s="1">
-        <v>0.26877746200025698</v>
+        <v>0.38256920376636999</v>
       </c>
       <c r="K11" s="1">
-        <v>0.28111012452799899</v>
+        <v>0.39878156667671399</v>
       </c>
       <c r="L11" s="1">
-        <v>0.30484653</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.22945545163800701</v>
+        <v>0.30464414000000001</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.235762255572663</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
